--- a/Basic assessment/yeastGEM_v9__46__0__46__0_sub_use_SolveCompartmentIssue.xlsx
+++ b/Basic assessment/yeastGEM_v9__46__0__46__0_sub_use_SolveCompartmentIssue.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="359">
   <si>
     <t>Name_in_Model</t>
   </si>
@@ -1567,9 +1567,6 @@
       <c r="E6" t="s">
         <v>357</v>
       </c>
-      <c r="F6" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1">
@@ -1587,9 +1584,6 @@
       <c r="E7" t="s">
         <v>358</v>
       </c>
-      <c r="F7" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1">
@@ -1647,9 +1641,6 @@
       <c r="E10" t="s">
         <v>358</v>
       </c>
-      <c r="F10" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1">
@@ -1667,9 +1658,6 @@
       <c r="E11" t="s">
         <v>358</v>
       </c>
-      <c r="F11" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1">
@@ -1687,9 +1675,6 @@
       <c r="E12" t="s">
         <v>358</v>
       </c>
-      <c r="F12" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1">
@@ -1747,9 +1732,6 @@
       <c r="E15" t="s">
         <v>358</v>
       </c>
-      <c r="F15" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1">
@@ -1968,7 +1950,7 @@
         <v>357</v>
       </c>
       <c r="F26" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2167,9 +2149,6 @@
       <c r="E36" t="s">
         <v>358</v>
       </c>
-      <c r="F36" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1">
@@ -2647,9 +2626,6 @@
       <c r="E60" t="s">
         <v>358</v>
       </c>
-      <c r="F60" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="1">
@@ -2687,9 +2663,6 @@
       <c r="E62" t="s">
         <v>358</v>
       </c>
-      <c r="F62" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="1">
@@ -3764,9 +3737,6 @@
       <c r="E116" t="s">
         <v>358</v>
       </c>
-      <c r="F116" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
@@ -3804,9 +3774,6 @@
       <c r="E118" t="s">
         <v>357</v>
       </c>
-      <c r="F118" t="s">
-        <v>358</v>
-      </c>
     </row>
     <row r="119" spans="1:6">
       <c r="A119" s="1">
@@ -3865,7 +3832,7 @@
         <v>357</v>
       </c>
       <c r="F121" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4261,9 +4228,6 @@
       <c r="E141" t="s">
         <v>358</v>
       </c>
-      <c r="F141" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="142" spans="1:6">
       <c r="A142" s="1">
@@ -4281,9 +4245,6 @@
       <c r="E142" t="s">
         <v>358</v>
       </c>
-      <c r="F142" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="143" spans="1:6">
       <c r="A143" s="1">
@@ -4301,9 +4262,6 @@
       <c r="E143" t="s">
         <v>358</v>
       </c>
-      <c r="F143" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1">
@@ -4321,9 +4279,6 @@
       <c r="E144" t="s">
         <v>358</v>
       </c>
-      <c r="F144" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="145" spans="1:6">
       <c r="A145" s="1">
@@ -4341,9 +4296,6 @@
       <c r="E145" t="s">
         <v>358</v>
       </c>
-      <c r="F145" t="s">
-        <v>358</v>
-      </c>
     </row>
     <row r="146" spans="1:6">
       <c r="A146" s="1">
@@ -4401,9 +4353,6 @@
       <c r="E148" t="s">
         <v>358</v>
       </c>
-      <c r="F148" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="149" spans="1:6">
       <c r="A149" s="1">
@@ -4421,9 +4370,6 @@
       <c r="E149" t="s">
         <v>358</v>
       </c>
-      <c r="F149" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="150" spans="1:6">
       <c r="A150" s="1">
@@ -4441,9 +4387,6 @@
       <c r="E150" t="s">
         <v>358</v>
       </c>
-      <c r="F150" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="151" spans="1:6">
       <c r="A151" s="1">
@@ -4461,9 +4404,6 @@
       <c r="E151" t="s">
         <v>358</v>
       </c>
-      <c r="F151" t="s">
-        <v>358</v>
-      </c>
     </row>
     <row r="152" spans="1:6">
       <c r="A152" s="1">
@@ -4481,9 +4421,6 @@
       <c r="E152" t="s">
         <v>358</v>
       </c>
-      <c r="F152" t="s">
-        <v>358</v>
-      </c>
     </row>
     <row r="153" spans="1:6">
       <c r="A153" s="1">
@@ -4541,9 +4478,6 @@
       <c r="E155" t="s">
         <v>358</v>
       </c>
-      <c r="F155" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="156" spans="1:6">
       <c r="A156" s="1">
@@ -4561,9 +4495,6 @@
       <c r="E156" t="s">
         <v>358</v>
       </c>
-      <c r="F156" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="157" spans="1:6">
       <c r="A157" s="1">
@@ -4601,9 +4532,6 @@
       <c r="E158" t="s">
         <v>358</v>
       </c>
-      <c r="F158" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="159" spans="1:6">
       <c r="A159" s="1">
@@ -4621,9 +4549,6 @@
       <c r="E159" t="s">
         <v>358</v>
       </c>
-      <c r="F159" t="s">
-        <v>357</v>
-      </c>
     </row>
     <row r="160" spans="1:6">
       <c r="A160" s="1">
@@ -4641,9 +4566,6 @@
       <c r="E160" t="s">
         <v>358</v>
       </c>
-      <c r="F160" t="s">
-        <v>358</v>
-      </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="1">
@@ -5100,9 +5022,6 @@
       </c>
       <c r="E183" t="s">
         <v>357</v>
-      </c>
-      <c r="F183" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="184" spans="1:6">
